--- a/en/development_tools/toolbox/SqlExecutor/_images/sql-executor.xlsx
+++ b/en/development_tools/toolbox/SqlExecutor/_images/sql-executor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seko\git\github\nablarch\nablarch-document\en\development_tools\toolbox\SqlExecutor\_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE612A54-A66C-4008-8A65-16C35E31D880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511D0A0D-C916-4FF5-AFD6-9227B487AF29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配布" sheetId="4" r:id="rId1"/>
@@ -1933,7 +1933,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>112967</xdr:colOff>
+      <xdr:colOff>360675</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>157237</xdr:rowOff>
     </xdr:to>
@@ -1951,9 +1951,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1157611" y="2206337"/>
-          <a:ext cx="3111720" cy="3579309"/>
+          <a:ext cx="3359428" cy="3579309"/>
           <a:chOff x="1798384" y="4182341"/>
-          <a:chExt cx="3111720" cy="3579309"/>
+          <a:chExt cx="3359428" cy="3579309"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -1970,9 +1970,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="1798384" y="4182341"/>
-            <a:ext cx="3111720" cy="3579309"/>
+            <a:ext cx="3359428" cy="3579309"/>
             <a:chOff x="7980975" y="4736524"/>
-            <a:chExt cx="3111720" cy="3579309"/>
+            <a:chExt cx="3359428" cy="3579309"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
@@ -2115,7 +2115,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="9819409" y="4987637"/>
-              <a:ext cx="1005403" cy="625812"/>
+              <a:ext cx="1520994" cy="593304"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2143,10 +2143,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
-                <a:t>接続</a:t>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+                <a:t>connect</a:t>
               </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2208,7 +2207,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>369277</xdr:colOff>
+      <xdr:colOff>616985</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>157237</xdr:rowOff>
     </xdr:to>
@@ -2226,9 +2225,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="8341193" y="2206337"/>
-          <a:ext cx="3111720" cy="3579309"/>
+          <a:ext cx="3359428" cy="3579309"/>
           <a:chOff x="1798384" y="4182341"/>
-          <a:chExt cx="3111720" cy="3579309"/>
+          <a:chExt cx="3359428" cy="3579309"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2245,9 +2244,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="1798384" y="4182341"/>
-            <a:ext cx="3111720" cy="3579309"/>
+            <a:ext cx="3359428" cy="3579309"/>
             <a:chOff x="7980975" y="4736524"/>
-            <a:chExt cx="3111720" cy="3579309"/>
+            <a:chExt cx="3359428" cy="3579309"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
@@ -2390,7 +2389,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="9819409" y="4987637"/>
-              <a:ext cx="1005403" cy="625812"/>
+              <a:ext cx="1520994" cy="593304"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2418,10 +2417,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
-                <a:t>接続</a:t>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+                <a:t>connect</a:t>
               </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2483,7 +2481,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>241122</xdr:colOff>
+      <xdr:colOff>488830</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>157237</xdr:rowOff>
     </xdr:to>
@@ -2501,9 +2499,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="4749402" y="2206337"/>
-          <a:ext cx="3111720" cy="3579309"/>
+          <a:ext cx="3359428" cy="3579309"/>
           <a:chOff x="1798384" y="4182341"/>
-          <a:chExt cx="3111720" cy="3579309"/>
+          <a:chExt cx="3359428" cy="3579309"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2520,9 +2518,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="1798384" y="4182341"/>
-            <a:ext cx="3111720" cy="3579309"/>
+            <a:ext cx="3359428" cy="3579309"/>
             <a:chOff x="7980975" y="4736524"/>
-            <a:chExt cx="3111720" cy="3579309"/>
+            <a:chExt cx="3359428" cy="3579309"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
@@ -2665,7 +2663,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="9819409" y="4987637"/>
-              <a:ext cx="1005403" cy="625812"/>
+              <a:ext cx="1520994" cy="593304"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2693,10 +2691,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
-                <a:t>接続</a:t>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+                <a:t>connect</a:t>
               </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3586,15 +3583,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>103908</xdr:rowOff>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>225134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>191449</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>54311</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3609,8 +3606,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2649682" y="2130135"/>
-          <a:ext cx="1005403" cy="625812"/>
+          <a:off x="2303318" y="2026225"/>
+          <a:ext cx="1541318" cy="625812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3638,10 +3635,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
-            <a:t>接続</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+            <a:t>connect</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3971,16 +3967,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>450272</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>554184</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>34635</xdr:rowOff>
+      <xdr:rowOff>190498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>70221</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>210174</xdr:rowOff>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140901</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3995,8 +3991,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4606636" y="2736271"/>
-          <a:ext cx="1005403" cy="625812"/>
+          <a:off x="4017820" y="2892134"/>
+          <a:ext cx="1593271" cy="625812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4024,10 +4020,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
-            <a:t>接続</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+            <a:t>connect</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4037,14 +4032,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>103908</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>225134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>347312</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>54311</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259772</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4059,8 +4054,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7654636" y="2130135"/>
-          <a:ext cx="1005403" cy="625812"/>
+          <a:off x="7654636" y="2026225"/>
+          <a:ext cx="1610591" cy="625812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4088,10 +4083,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
-            <a:t>接続</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+            <a:t>connect</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4423,7 +4417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
@@ -5747,7 +5741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
